--- a/rule_files/wiki_rules.xlsx
+++ b/rule_files/wiki_rules.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="500" windowWidth="18040" windowHeight="13020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="14340" yWindow="1440" windowWidth="18040" windowHeight="12040" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="categ_synsets" sheetId="1" r:id="rId1"/>
     <sheet name="pronouns" sheetId="2" r:id="rId2"/>
     <sheet name="regexps" sheetId="3" r:id="rId3"/>
+    <sheet name="ner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="155">
   <si>
     <t>person.n.01</t>
   </si>
@@ -369,6 +370,123 @@
   </si>
   <si>
     <t>general_categs</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>person.n.01|people.n.01</t>
+  </si>
+  <si>
+    <t>NORP</t>
+  </si>
+  <si>
+    <t>ethnic_group.n.01|race.n.03|citizenry.n.01</t>
+  </si>
+  <si>
+    <t>FACILITY</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>GPE</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>WORK_OF_ART</t>
+  </si>
+  <si>
+    <t>LAW</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>ORDINAL</t>
+  </si>
+  <si>
+    <t>CARDINAL</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>ABSTRACTION</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>social_group.n.01</t>
+  </si>
+  <si>
+    <t>event.n.01</t>
+  </si>
+  <si>
+    <t>legal_document.n.01</t>
+  </si>
+  <si>
+    <t>language.n.01</t>
+  </si>
+  <si>
+    <t>time_period.n.01</t>
+  </si>
+  <si>
+    <t>percentage.n.01</t>
+  </si>
+  <si>
+    <t>monetary_unit.n.01</t>
+  </si>
+  <si>
+    <t>rank.n.02</t>
+  </si>
+  <si>
+    <t>number.n.02</t>
+  </si>
+  <si>
+    <t>abstraction.n.06</t>
+  </si>
+  <si>
+    <t>entity.n.01</t>
+  </si>
+  <si>
+    <t>facility.n.01|structure.n.01</t>
+  </si>
+  <si>
+    <t>state.n.04|country.n.02|nation.n.02</t>
+  </si>
+  <si>
+    <t>communication.n.02|creation.n.02</t>
+  </si>
+  <si>
+    <t>time_unit.n.01|hour.n.02</t>
+  </si>
+  <si>
+    <t>definite_quantity.n.01|indefinite_quantity.n.01</t>
+  </si>
+  <si>
+    <t>location.n.01|geological_formation.n.01</t>
   </si>
 </sst>
 </file>
@@ -413,11 +531,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1640,4 +1759,187 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>